--- a/SpringAssignments/Hours_Completed.xlsx
+++ b/SpringAssignments/Hours_Completed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailuc-my.sharepoint.com/personal/cordontd_mail_uc_edu/Documents/Senior Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ted\Documents\Repositories\SeniorDesign\SpringAssignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{E395C154-9935-4020-81F3-18E4960EB32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8729D558-F954-40F5-9BA4-8852CD97BA50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57CC608-8C21-44D6-BCF3-A135742732B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02A50F5C-2942-4DEE-AD1E-956EA5D121AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Hours Completed:</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Improve Program, Improve Iteratively through Meetings with Advisor</t>
+  </si>
+  <si>
+    <t>Notes can be found on GitHub for more explanation of activities throughout both semesters</t>
+  </si>
+  <si>
+    <t>Hours (Year Total)</t>
   </si>
 </sst>
 </file>
@@ -199,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -211,6 +217,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +538,7 @@
   <dimension ref="A4:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,11 +891,20 @@
       <c r="B31" s="2"/>
       <c r="E31"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f>B30 + I30</f>
+        <v>120</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34"/>
       <c r="F34" s="2"/>
     </row>
